--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.01114839738433333</v>
+        <v>0.114621739319</v>
       </c>
       <c r="R2">
-        <v>0.100335576459</v>
+        <v>1.031595653871</v>
       </c>
       <c r="S2">
-        <v>2.003166132486308E-05</v>
+        <v>0.0001821054690974847</v>
       </c>
       <c r="T2">
-        <v>2.003166132486308E-05</v>
+        <v>0.0001821054690974847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.01964785527577778</v>
+        <v>0.028596792062</v>
       </c>
       <c r="R3">
-        <v>0.176830697482</v>
+        <v>0.257371128558</v>
       </c>
       <c r="S3">
-        <v>3.530365568035774E-05</v>
+        <v>4.54331984846308E-05</v>
       </c>
       <c r="T3">
-        <v>3.530365568035773E-05</v>
+        <v>4.543319848463081E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>10.78971403560367</v>
+        <v>16.879435809573</v>
       </c>
       <c r="R4">
-        <v>97.10742632043301</v>
+        <v>151.914922286157</v>
       </c>
       <c r="S4">
-        <v>0.01938717197658084</v>
+        <v>0.02681723026073157</v>
       </c>
       <c r="T4">
-        <v>0.01938717197658084</v>
+        <v>0.02681723026073158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.009116147530777777</v>
+        <v>0.01880535502</v>
       </c>
       <c r="R5">
-        <v>0.08204532777699999</v>
+        <v>0.16924819518</v>
       </c>
       <c r="S5">
-        <v>1.638007451910967E-05</v>
+        <v>2.987703744340386E-05</v>
       </c>
       <c r="T5">
-        <v>1.638007451910966E-05</v>
+        <v>2.987703744340387E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.4184868420613333</v>
+        <v>2.956202597305778</v>
       </c>
       <c r="R6">
-        <v>3.766381578552</v>
+        <v>26.605823375752</v>
       </c>
       <c r="S6">
-        <v>0.0007519454501025031</v>
+        <v>0.004696671538296353</v>
       </c>
       <c r="T6">
-        <v>0.0007519454501025031</v>
+        <v>0.004696671538296355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
         <v>0.7375381971217779</v>
@@ -883,10 +883,10 @@
         <v>6.637843774096</v>
       </c>
       <c r="S7">
-        <v>0.001325223246854781</v>
+        <v>0.001171764973748841</v>
       </c>
       <c r="T7">
-        <v>0.00132522324685478</v>
+        <v>0.001171764973748841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>405.0226411780027</v>
+        <v>435.3365450374427</v>
       </c>
       <c r="R8">
-        <v>3645.203770602024</v>
+        <v>3918.028905336984</v>
       </c>
       <c r="S8">
-        <v>0.7277527071631618</v>
+        <v>0.6916416224385508</v>
       </c>
       <c r="T8">
-        <v>0.7277527071631618</v>
+        <v>0.6916416224385509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N9">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O9">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P9">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q9">
-        <v>0.3422005567617778</v>
+        <v>0.485007815128889</v>
       </c>
       <c r="R9">
-        <v>3.079805010856</v>
+        <v>4.365070336160001</v>
       </c>
       <c r="S9">
-        <v>0.000614872741069001</v>
+        <v>0.0007705569311261697</v>
       </c>
       <c r="T9">
-        <v>0.000614872741069001</v>
+        <v>0.0007705569311261699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N10">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q10">
-        <v>0.1163863306633333</v>
+        <v>1.060558493441222</v>
       </c>
       <c r="R10">
-        <v>1.04747697597</v>
+        <v>9.545026440970998</v>
       </c>
       <c r="S10">
-        <v>0.0002091252651226549</v>
+        <v>0.001684963978917925</v>
       </c>
       <c r="T10">
-        <v>0.0002091252651226549</v>
+        <v>0.001684963978917925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.273934</v>
       </c>
       <c r="O11">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P11">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q11">
-        <v>0.2051184311177778</v>
+        <v>0.2645970204842222</v>
       </c>
       <c r="R11">
-        <v>1.84606588006</v>
+        <v>2.381373184358</v>
       </c>
       <c r="S11">
-        <v>0.0003685608614393941</v>
+        <v>0.0004203789335544385</v>
       </c>
       <c r="T11">
-        <v>0.0003685608614393941</v>
+        <v>0.0004203789335544385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N12">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q12">
-        <v>112.6417710293767</v>
+        <v>156.1800503002063</v>
       </c>
       <c r="R12">
-        <v>1013.77593926439</v>
+        <v>1405.620452701857</v>
       </c>
       <c r="S12">
-        <v>0.2023969661741815</v>
+        <v>0.2481313012048609</v>
       </c>
       <c r="T12">
-        <v>0.2023969661741815</v>
+        <v>0.2481313012048609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N13">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O13">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P13">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q13">
-        <v>0.09517017776777778</v>
+        <v>0.1739999681311111</v>
       </c>
       <c r="R13">
-        <v>0.8565315999099999</v>
+        <v>1.56599971318</v>
       </c>
       <c r="S13">
-        <v>0.0001710036612033758</v>
+        <v>0.0002764427237600902</v>
       </c>
       <c r="T13">
-        <v>0.0001710036612033758</v>
+        <v>0.0002764427237600902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N14">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O14">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P14">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q14">
-        <v>0.026899027736</v>
+        <v>0.1021624382255555</v>
       </c>
       <c r="R14">
-        <v>0.2420912496239999</v>
+        <v>0.9194619440299999</v>
       </c>
       <c r="S14">
-        <v>4.833270603834618E-05</v>
+        <v>0.0001623107348373982</v>
       </c>
       <c r="T14">
-        <v>4.833270603834618E-05</v>
+        <v>0.0001623107348373983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.273934</v>
       </c>
       <c r="O15">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P15">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q15">
-        <v>0.04740665279466667</v>
+        <v>0.02548834121555556</v>
       </c>
       <c r="R15">
-        <v>0.426659875152</v>
+        <v>0.22939507094</v>
       </c>
       <c r="S15">
-        <v>8.518121310087513E-05</v>
+        <v>4.049464230042529E-05</v>
       </c>
       <c r="T15">
-        <v>8.518121310087512E-05</v>
+        <v>4.049464230042531E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N16">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O16">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P16">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q16">
-        <v>26.033590937032</v>
+        <v>15.04465320822333</v>
       </c>
       <c r="R16">
-        <v>234.302318433288</v>
+        <v>135.40187887401</v>
       </c>
       <c r="S16">
-        <v>0.04677767204939251</v>
+        <v>0.02390221650945011</v>
       </c>
       <c r="T16">
-        <v>0.04677767204939251</v>
+        <v>0.02390221650945011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N17">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O17">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P17">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q17">
-        <v>0.02199558347466667</v>
+        <v>0.01676122637777778</v>
       </c>
       <c r="R17">
-        <v>0.197960251272</v>
+        <v>0.1508510374</v>
       </c>
       <c r="S17">
-        <v>3.952210022818681E-05</v>
+        <v>2.662942483955482E-05</v>
       </c>
       <c r="T17">
-        <v>3.952210022818681E-05</v>
+        <v>2.662942483955484E-05</v>
       </c>
     </row>
   </sheetData>
